--- a/medicine/Psychotrope/Brasserie_Saint-Monon/Brasserie_Saint-Monon.xlsx
+++ b/medicine/Psychotrope/Brasserie_Saint-Monon/Brasserie_Saint-Monon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Saint-Monon est une ferme-brasserie artisanale située à Ambly, en Belgique dans la commune de Nassogne dans la province de Luxembourg.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la brasserie fait référence à l'ermite Monon d'origine irlandaise, à qui l'on attribue l'évangélisation de  la région de Nassogne. Cela se situe au VIIe siècle. Assassiné par les habitants de la région (ou bandits?) il est considéré comme saint dans la tradition catholique. Liturgiquement il est commémoré le 18 octobre.
 La brasserie ouvre en 1996, à l'initiative de Pierre Jacob, alors fraîchement diplômé d'agronomie. Ses parents, cultivateurs, accueillent dans la ferme familiale les premières cuves et les premiers brassins. D'essais en prix locaux, régionaux puis internationaux, les différentes bières produites à Ambly se sont progressivement fait une place sur le marché local et étranger, peinant toutefois à conquérir le marché national.
@@ -544,7 +558,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très simple, et même caricaturale, l'imagerie de la brasserie Saint-Monon condense son terroir villageois, son activité brassicole et le rappel hagiographique de Saint-Monon. Les étiquettes des différentes bières présentent toutes la même image d'un moine tonsuré en robe de bure (vu en plan rapproché), tenant une chope de bière de la main droite. À l'arrière-plan, deux cochons paissent, rappelant une anecdote de la vie de l'ermite éponyme, dans un paysage bucolique présentant un village entouré de bois, à l'horizon.
 </t>
@@ -575,7 +591,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Saint-Monon se décline en trois versions, ambrée, brune et parfumée au miel. Toutes trois ont été primées lors de concours agricoles ou brassicoles en Europe et aux États-Unis. Récemment, une quatrième bière, produite pour les fêtes de fin d'année, est apparue pour compléter la gamme. Ces bières sont en général commercialisées en bouteilles de 33 cl capsulées et de 75 cl bouchonnées ainsi qu'en fûts de 20 et 30 litres.
 La Saint-Monon ambrée est une bière avec un arôme très houblonné et titre 6,5 % de volume d'alcool.
